--- a/biology/Zoologie/Eniclases_slipinskii/Eniclases_slipinskii.xlsx
+++ b/biology/Zoologie/Eniclases_slipinskii/Eniclases_slipinskii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eniclases slipinskii est une espèce de coléoptères de la famille des Lycidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Eniclases slipinskii a été décrite en 1991 par les entomologistes tchèques Ladislav Bocák (d) et Milada Bocáková (d)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Eniclases slipinskii a été décrite en 1991 par les entomologistes tchèques Ladislav Bocák (d) et Milada Bocáková (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte en Nouvelle-Guinée[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte en Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eniclases slipinskii est un insecte de forme allongée dont le corps est noir[1]. Sa longueur totale est comprise entre 7,2 et 8,4 mm[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eniclases slipinskii est un insecte de forme allongée dont le corps est noir. Sa longueur totale est comprise entre 7,2 et 8,4 mm.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, slipinskii, lui a été donnée en l'honneur de Stanisław Adam Ślipiński, un entomologiste polonais[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, slipinskii, lui a été donnée en l'honneur de Stanisław Adam Ślipiński, un entomologiste polonais.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Ladislav Bocák et Milada Bocáková, « Revision of the genus Eniclases Waterhouse, 1879 (Coleoptera, Lycidae, Metriorrhynchinae) », Mitteilungen der Münchner Entomologischen Gesellschaft, Munich, Münchner Entomologische Gesellschaft (d), vol. 81,‎ 31 décembre 1991, p. 203-226 (ISSN 0340-4943, OCLC 1645059, lire en ligne)</t>
         </is>
